--- a/backend/src/excel/templates/M9MEX.xlsx
+++ b/backend/src/excel/templates/M9MEX.xlsx
@@ -1,42 +1,289 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36641A-55CC-4447-ADC9-6672056CD325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M9MEX" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M9MEX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'M9MEX'!$A$1:$H$50</definedName>
-  </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
+  <si>
+    <t>CFE Distribución
+Centro Oriente</t>
+  </si>
+  <si>
+    <t>COMISIÓN FEDERAL DE ELECTRICIDAD
+DIVISIÓN CENTRO ORIENTE</t>
+  </si>
+  <si>
+    <t>FORMA M9MEX</t>
+  </si>
+  <si>
+    <t>M9MEX-20260204-0001</t>
+  </si>
+  <si>
+    <t>DEPTO. DE MEDICIÓN
+EQUIPOS DE MEDICIÓN
+INSTALACIÓN-CAMBIOS-RETIROS</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>ORDEN ATENDIDA:</t>
+  </si>
+  <si>
+    <t>( X ) INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>(   ) CAMBIO</t>
+  </si>
+  <si>
+    <t>(   ) RETIRO</t>
+  </si>
+  <si>
+    <t>(   ) MODIFICACIÓN</t>
+  </si>
+  <si>
+    <t>USUARIO:</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>DOMICILIO:</t>
+  </si>
+  <si>
+    <t>Test Address</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S.E. CONSUMIDOR:</t>
+  </si>
+  <si>
+    <t>MARCA:</t>
+  </si>
+  <si>
+    <t>DEM. CONT.:</t>
+  </si>
+  <si>
+    <t>KW'S</t>
+  </si>
+  <si>
+    <t>VOLTAJE PRIM.:</t>
+  </si>
+  <si>
+    <t>VOLTAJE SEC.:</t>
+  </si>
+  <si>
+    <t>AGENCIA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARIFA: </t>
+  </si>
+  <si>
+    <t>MEDICIÓN EN:</t>
+  </si>
+  <si>
+    <t>( X ) BAJA TENSIÓN   (   ) ALTA TENSIÓN</t>
+  </si>
+  <si>
+    <t>COBRAR 2%:</t>
+  </si>
+  <si>
+    <t>( X ) SI   (   ) NO</t>
+  </si>
+  <si>
+    <t>DATOS DE
+REGISTRO</t>
+  </si>
+  <si>
+    <t>INSTALADO</t>
+  </si>
+  <si>
+    <t>RETIRADO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES / OTROS</t>
+  </si>
+  <si>
+    <t>KWH</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>No. C.F.E.</t>
+  </si>
+  <si>
+    <t>No. DE FABRICA</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>CÓDIGO MEDIDOR</t>
+  </si>
+  <si>
+    <t>CÓDIGO LOTE</t>
+  </si>
+  <si>
+    <t>FASE - ELEMENTOS</t>
+  </si>
+  <si>
+    <t>HILOS - CONEXIÓN</t>
+  </si>
+  <si>
+    <t>AMPS (CLASE)</t>
+  </si>
+  <si>
+    <t>VOLTS</t>
+  </si>
+  <si>
+    <t>Rr-Rs</t>
+  </si>
+  <si>
+    <t>Kh-Kr</t>
+  </si>
+  <si>
+    <t>LECTURA</t>
+  </si>
+  <si>
+    <t>No. DE CARÁTULAS</t>
+  </si>
+  <si>
+    <t>MULTIPLICADOR</t>
+  </si>
+  <si>
+    <t>KW TIPO</t>
+  </si>
+  <si>
+    <t>DEMANDA</t>
+  </si>
+  <si>
+    <t>(   ) INDIC.  (   ) DIR.</t>
+  </si>
+  <si>
+    <t>KW PERIODO</t>
+  </si>
+  <si>
+    <t>ESCALA</t>
+  </si>
+  <si>
+    <t>SELLOS ENCONTRADO</t>
+  </si>
+  <si>
+    <t>SELLOS DEJADO</t>
+  </si>
+  <si>
+    <t>NOMBRE Y FIRMA R.P.E.
+CALIBRADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE Y FIRMA R.P.E.
+TÉCNICO</t>
+  </si>
+  <si>
+    <t>NOMBRE Y FIRMA R.P.E.
+JEFE DE OFICINA</t>
+  </si>
+  <si>
+    <t>RPU:</t>
+  </si>
+  <si>
+    <t>ORDEN:</t>
+  </si>
+  <si>
+    <t>GEOREFERENCIAS:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -44,85 +291,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,6 +463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,6 +498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,20 +533,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -404,36 +664,814 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="0" fitToWidth="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>